--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col2a1-Itga10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga10</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0441832053787586</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H2">
-        <v>0.0441832053787586</v>
+        <v>0.160391</v>
       </c>
       <c r="I2">
-        <v>0.06596078662728613</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J2">
-        <v>0.06596078662728613</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.516552746573448</v>
+        <v>0.5772876666666668</v>
       </c>
       <c r="N2">
-        <v>0.516552746573448</v>
+        <v>1.731863</v>
       </c>
       <c r="O2">
-        <v>0.2191014972301507</v>
+        <v>0.2241579014468519</v>
       </c>
       <c r="P2">
-        <v>0.2191014972301507</v>
+        <v>0.2241579014468518</v>
       </c>
       <c r="Q2">
-        <v>0.02282295609081649</v>
+        <v>0.03086391538144445</v>
       </c>
       <c r="R2">
-        <v>0.02282295609081649</v>
+        <v>0.2777752384330001</v>
       </c>
       <c r="S2">
-        <v>0.01445210710851689</v>
+        <v>0.01618129412464575</v>
       </c>
       <c r="T2">
-        <v>0.01445210710851689</v>
+        <v>0.01618129412464575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0441832053787586</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H3">
-        <v>0.0441832053787586</v>
+        <v>0.160391</v>
       </c>
       <c r="I3">
-        <v>0.06596078662728613</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J3">
-        <v>0.06596078662728613</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.00731456511851</v>
+        <v>1.025249333333333</v>
       </c>
       <c r="N3">
-        <v>1.00731456511851</v>
+        <v>3.075748</v>
       </c>
       <c r="O3">
-        <v>0.4272634902500165</v>
+        <v>0.3980991666542628</v>
       </c>
       <c r="P3">
-        <v>0.4272634902500165</v>
+        <v>0.3980991666542628</v>
       </c>
       <c r="Q3">
-        <v>0.04450638631164603</v>
+        <v>0.05481358860755555</v>
       </c>
       <c r="R3">
-        <v>0.04450638631164603</v>
+        <v>0.493322297468</v>
       </c>
       <c r="S3">
-        <v>0.02818263591401089</v>
+        <v>0.02873759820568422</v>
       </c>
       <c r="T3">
-        <v>0.02818263591401089</v>
+        <v>0.02873759820568423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0441832053787586</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H4">
-        <v>0.0441832053787586</v>
+        <v>0.160391</v>
       </c>
       <c r="I4">
-        <v>0.06596078662728613</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J4">
-        <v>0.06596078662728613</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.202269871156006</v>
+        <v>0.236315</v>
       </c>
       <c r="N4">
-        <v>0.202269871156006</v>
+        <v>0.7089449999999999</v>
       </c>
       <c r="O4">
-        <v>0.08579497816788613</v>
+        <v>0.09175992757004356</v>
       </c>
       <c r="P4">
-        <v>0.08579497816788613</v>
+        <v>0.09175992757004356</v>
       </c>
       <c r="Q4">
-        <v>0.008936931259220854</v>
+        <v>0.01263426638833333</v>
       </c>
       <c r="R4">
-        <v>0.008936931259220854</v>
+        <v>0.113708397495</v>
       </c>
       <c r="S4">
-        <v>0.005659104248624609</v>
+        <v>0.006623877040618673</v>
       </c>
       <c r="T4">
-        <v>0.005659104248624609</v>
+        <v>0.006623877040618674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0441832053787586</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H5">
-        <v>0.0441832053787586</v>
+        <v>0.160391</v>
       </c>
       <c r="I5">
-        <v>0.06596078662728613</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J5">
-        <v>0.06596078662728613</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.179242141888347</v>
+        <v>0.271303</v>
       </c>
       <c r="N5">
-        <v>0.179242141888347</v>
+        <v>0.813909</v>
       </c>
       <c r="O5">
-        <v>0.07602751493431827</v>
+        <v>0.1053455922372068</v>
       </c>
       <c r="P5">
-        <v>0.07602751493431827</v>
+        <v>0.1053455922372068</v>
       </c>
       <c r="Q5">
-        <v>0.007919492367581426</v>
+        <v>0.01450485315766667</v>
       </c>
       <c r="R5">
-        <v>0.007919492367581426</v>
+        <v>0.130543678419</v>
       </c>
       <c r="S5">
-        <v>0.005014834690385377</v>
+        <v>0.00760458588219524</v>
       </c>
       <c r="T5">
-        <v>0.005014834690385377</v>
+        <v>0.00760458588219524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0441832053787586</v>
+        <v>0.05346366666666667</v>
       </c>
       <c r="H6">
-        <v>0.0441832053787586</v>
+        <v>0.160391</v>
       </c>
       <c r="I6">
-        <v>0.06596078662728613</v>
+        <v>0.0721870343191197</v>
       </c>
       <c r="J6">
-        <v>0.06596078662728613</v>
+        <v>0.07218703431911971</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.452216369969717</v>
+        <v>0.4652066666666667</v>
       </c>
       <c r="N6">
-        <v>0.452216369969717</v>
+        <v>1.39562</v>
       </c>
       <c r="O6">
-        <v>0.1918125194176283</v>
+        <v>0.1806374120916351</v>
       </c>
       <c r="P6">
-        <v>0.1918125194176283</v>
+        <v>0.1806374120916351</v>
       </c>
       <c r="Q6">
-        <v>0.01998036875000869</v>
+        <v>0.02487165415777778</v>
       </c>
       <c r="R6">
-        <v>0.01998036875000869</v>
+        <v>0.22384488742</v>
       </c>
       <c r="S6">
-        <v>0.01265210466574836</v>
+        <v>0.01303967906597583</v>
       </c>
       <c r="T6">
-        <v>0.01265210466574836</v>
+        <v>0.01303967906597583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.578742533217937</v>
+        <v>0.5894243333333333</v>
       </c>
       <c r="H7">
-        <v>0.578742533217937</v>
+        <v>1.768273</v>
       </c>
       <c r="I7">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077357</v>
       </c>
       <c r="J7">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077358</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.516552746573448</v>
+        <v>0.5772876666666668</v>
       </c>
       <c r="N7">
-        <v>0.516552746573448</v>
+        <v>1.731863</v>
       </c>
       <c r="O7">
-        <v>0.2191014972301507</v>
+        <v>0.2241579014468519</v>
       </c>
       <c r="P7">
-        <v>0.2191014972301507</v>
+        <v>0.2241579014468518</v>
       </c>
       <c r="Q7">
-        <v>0.2989510450926003</v>
+        <v>0.3402673980665556</v>
       </c>
       <c r="R7">
-        <v>0.2989510450926003</v>
+        <v>3.062406582599</v>
       </c>
       <c r="S7">
-        <v>0.189303809142401</v>
+        <v>0.1783949567349147</v>
       </c>
       <c r="T7">
-        <v>0.189303809142401</v>
+        <v>0.1783949567349147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.578742533217937</v>
+        <v>0.5894243333333333</v>
       </c>
       <c r="H8">
-        <v>0.578742533217937</v>
+        <v>1.768273</v>
       </c>
       <c r="I8">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077357</v>
       </c>
       <c r="J8">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077358</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.00731456511851</v>
+        <v>1.025249333333333</v>
       </c>
       <c r="N8">
-        <v>1.00731456511851</v>
+        <v>3.075748</v>
       </c>
       <c r="O8">
-        <v>0.4272634902500165</v>
+        <v>0.3980991666542628</v>
       </c>
       <c r="P8">
-        <v>0.4272634902500165</v>
+        <v>0.3980991666542628</v>
       </c>
       <c r="Q8">
-        <v>0.5829757831640111</v>
+        <v>0.6043069048004444</v>
       </c>
       <c r="R8">
-        <v>0.5829757831640111</v>
+        <v>5.438762143203999</v>
       </c>
       <c r="S8">
-        <v>0.3691558808785489</v>
+        <v>0.316825251990198</v>
       </c>
       <c r="T8">
-        <v>0.3691558808785489</v>
+        <v>0.3168252519901981</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.578742533217937</v>
+        <v>0.5894243333333333</v>
       </c>
       <c r="H9">
-        <v>0.578742533217937</v>
+        <v>1.768273</v>
       </c>
       <c r="I9">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077357</v>
       </c>
       <c r="J9">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077358</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.202269871156006</v>
+        <v>0.236315</v>
       </c>
       <c r="N9">
-        <v>0.202269871156006</v>
+        <v>0.7089449999999999</v>
       </c>
       <c r="O9">
-        <v>0.08579497816788613</v>
+        <v>0.09175992757004356</v>
       </c>
       <c r="P9">
-        <v>0.08579497816788613</v>
+        <v>0.09175992757004356</v>
       </c>
       <c r="Q9">
-        <v>0.1170621776264926</v>
+        <v>0.1392898113316667</v>
       </c>
       <c r="R9">
-        <v>0.1170621776264926</v>
+        <v>1.253608301985</v>
       </c>
       <c r="S9">
-        <v>0.07412690637805007</v>
+        <v>0.07302668432920738</v>
       </c>
       <c r="T9">
-        <v>0.07412690637805007</v>
+        <v>0.07302668432920739</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.578742533217937</v>
+        <v>0.5894243333333333</v>
       </c>
       <c r="H10">
-        <v>0.578742533217937</v>
+        <v>1.768273</v>
       </c>
       <c r="I10">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077357</v>
       </c>
       <c r="J10">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077358</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.179242141888347</v>
+        <v>0.271303</v>
       </c>
       <c r="N10">
-        <v>0.179242141888347</v>
+        <v>0.813909</v>
       </c>
       <c r="O10">
-        <v>0.07602751493431827</v>
+        <v>0.1053455922372068</v>
       </c>
       <c r="P10">
-        <v>0.07602751493431827</v>
+        <v>0.1053455922372068</v>
       </c>
       <c r="Q10">
-        <v>0.1037350512558708</v>
+        <v>0.1599125899063333</v>
       </c>
       <c r="R10">
-        <v>0.1037350512558708</v>
+        <v>1.439213309157</v>
       </c>
       <c r="S10">
-        <v>0.06568781299371555</v>
+        <v>0.0838387683328056</v>
       </c>
       <c r="T10">
-        <v>0.06568781299371555</v>
+        <v>0.0838387683328056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.578742533217937</v>
+        <v>0.5894243333333333</v>
       </c>
       <c r="H11">
-        <v>0.578742533217937</v>
+        <v>1.768273</v>
       </c>
       <c r="I11">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077357</v>
       </c>
       <c r="J11">
-        <v>0.8640005273152044</v>
+        <v>0.7958450520077358</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.452216369969717</v>
+        <v>0.4652066666666667</v>
       </c>
       <c r="N11">
-        <v>0.452216369969717</v>
+        <v>1.39562</v>
       </c>
       <c r="O11">
-        <v>0.1918125194176283</v>
+        <v>0.1806374120916351</v>
       </c>
       <c r="P11">
-        <v>0.1918125194176283</v>
+        <v>0.1806374120916351</v>
       </c>
       <c r="Q11">
-        <v>0.2617168475188938</v>
+        <v>0.2742041293622223</v>
       </c>
       <c r="R11">
-        <v>0.2617168475188938</v>
+        <v>2.46783716426</v>
       </c>
       <c r="S11">
-        <v>0.1657261179224888</v>
+        <v>0.1437593906206101</v>
       </c>
       <c r="T11">
-        <v>0.1657261179224888</v>
+        <v>0.1437593906206101</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.0469147475154157</v>
+        <v>0.018799</v>
       </c>
       <c r="H12">
-        <v>0.0469147475154157</v>
+        <v>0.056397</v>
       </c>
       <c r="I12">
-        <v>0.07003868605750947</v>
+        <v>0.02538254749016711</v>
       </c>
       <c r="J12">
-        <v>0.07003868605750947</v>
+        <v>0.02538254749016712</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.516552746573448</v>
+        <v>0.5772876666666668</v>
       </c>
       <c r="N12">
-        <v>0.516552746573448</v>
+        <v>1.731863</v>
       </c>
       <c r="O12">
-        <v>0.2191014972301507</v>
+        <v>0.2241579014468519</v>
       </c>
       <c r="P12">
-        <v>0.2191014972301507</v>
+        <v>0.2241579014468518</v>
       </c>
       <c r="Q12">
-        <v>0.02423394168388783</v>
+        <v>0.01085243084566667</v>
       </c>
       <c r="R12">
-        <v>0.02423394168388783</v>
+        <v>0.097671877611</v>
       </c>
       <c r="S12">
-        <v>0.0153455809792328</v>
+        <v>0.005689698578770917</v>
       </c>
       <c r="T12">
-        <v>0.0153455809792328</v>
+        <v>0.005689698578770917</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.0469147475154157</v>
+        <v>0.018799</v>
       </c>
       <c r="H13">
-        <v>0.0469147475154157</v>
+        <v>0.056397</v>
       </c>
       <c r="I13">
-        <v>0.07003868605750947</v>
+        <v>0.02538254749016711</v>
       </c>
       <c r="J13">
-        <v>0.07003868605750947</v>
+        <v>0.02538254749016712</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.00731456511851</v>
+        <v>1.025249333333333</v>
       </c>
       <c r="N13">
-        <v>1.00731456511851</v>
+        <v>3.075748</v>
       </c>
       <c r="O13">
-        <v>0.4272634902500165</v>
+        <v>0.3980991666542628</v>
       </c>
       <c r="P13">
-        <v>0.4272634902500165</v>
+        <v>0.3980991666542628</v>
       </c>
       <c r="Q13">
-        <v>0.04725790849113567</v>
+        <v>0.01927366221733333</v>
       </c>
       <c r="R13">
-        <v>0.04725790849113567</v>
+        <v>0.173462959956</v>
       </c>
       <c r="S13">
-        <v>0.02992497345745667</v>
+        <v>0.01010477100339778</v>
       </c>
       <c r="T13">
-        <v>0.02992497345745667</v>
+        <v>0.01010477100339778</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.0469147475154157</v>
+        <v>0.018799</v>
       </c>
       <c r="H14">
-        <v>0.0469147475154157</v>
+        <v>0.056397</v>
       </c>
       <c r="I14">
-        <v>0.07003868605750947</v>
+        <v>0.02538254749016711</v>
       </c>
       <c r="J14">
-        <v>0.07003868605750947</v>
+        <v>0.02538254749016712</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.202269871156006</v>
+        <v>0.236315</v>
       </c>
       <c r="N14">
-        <v>0.202269871156006</v>
+        <v>0.7089449999999999</v>
       </c>
       <c r="O14">
-        <v>0.08579497816788613</v>
+        <v>0.09175992757004356</v>
       </c>
       <c r="P14">
-        <v>0.08579497816788613</v>
+        <v>0.09175992757004356</v>
       </c>
       <c r="Q14">
-        <v>0.009489439935259686</v>
+        <v>0.004442485685</v>
       </c>
       <c r="R14">
-        <v>0.009489439935259686</v>
+        <v>0.039982371165</v>
       </c>
       <c r="S14">
-        <v>0.006008967541211455</v>
+        <v>0.002329100719240925</v>
       </c>
       <c r="T14">
-        <v>0.006008967541211455</v>
+        <v>0.002329100719240926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.0469147475154157</v>
+        <v>0.018799</v>
       </c>
       <c r="H15">
-        <v>0.0469147475154157</v>
+        <v>0.056397</v>
       </c>
       <c r="I15">
-        <v>0.07003868605750947</v>
+        <v>0.02538254749016711</v>
       </c>
       <c r="J15">
-        <v>0.07003868605750947</v>
+        <v>0.02538254749016712</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.179242141888347</v>
+        <v>0.271303</v>
       </c>
       <c r="N15">
-        <v>0.179242141888347</v>
+        <v>0.813909</v>
       </c>
       <c r="O15">
-        <v>0.07602751493431827</v>
+        <v>0.1053455922372068</v>
       </c>
       <c r="P15">
-        <v>0.07602751493431827</v>
+        <v>0.1053455922372068</v>
       </c>
       <c r="Q15">
-        <v>0.008409099830814117</v>
+        <v>0.005100225097</v>
       </c>
       <c r="R15">
-        <v>0.008409099830814117</v>
+        <v>0.045902025873</v>
       </c>
       <c r="S15">
-        <v>0.00532486725021733</v>
+        <v>0.002673939497840682</v>
       </c>
       <c r="T15">
-        <v>0.00532486725021733</v>
+        <v>0.002673939497840682</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.018799</v>
+      </c>
+      <c r="H16">
+        <v>0.056397</v>
+      </c>
+      <c r="I16">
+        <v>0.02538254749016711</v>
+      </c>
+      <c r="J16">
+        <v>0.02538254749016712</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4652066666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.39562</v>
+      </c>
+      <c r="O16">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="P16">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="Q16">
+        <v>0.008745420126666667</v>
+      </c>
+      <c r="R16">
+        <v>0.07870878114</v>
+      </c>
+      <c r="S16">
+        <v>0.004585037690916814</v>
+      </c>
+      <c r="T16">
+        <v>0.004585037690916814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.051364</v>
+      </c>
+      <c r="I17">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J17">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5772876666666668</v>
+      </c>
+      <c r="N17">
+        <v>1.731863</v>
+      </c>
+      <c r="O17">
+        <v>0.2241579014468519</v>
+      </c>
+      <c r="P17">
+        <v>0.2241579014468518</v>
+      </c>
+      <c r="Q17">
+        <v>0.009883934570222222</v>
+      </c>
+      <c r="R17">
+        <v>0.08895541113200001</v>
+      </c>
+      <c r="S17">
+        <v>0.005181936588825458</v>
+      </c>
+      <c r="T17">
+        <v>0.005181936588825458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.051364</v>
+      </c>
+      <c r="I18">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J18">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.025249333333333</v>
+      </c>
+      <c r="N18">
+        <v>3.075748</v>
+      </c>
+      <c r="O18">
+        <v>0.3980991666542628</v>
+      </c>
+      <c r="P18">
+        <v>0.3980991666542628</v>
+      </c>
+      <c r="Q18">
+        <v>0.01755363558577777</v>
+      </c>
+      <c r="R18">
+        <v>0.157982720272</v>
+      </c>
+      <c r="S18">
+        <v>0.009202997638500691</v>
+      </c>
+      <c r="T18">
+        <v>0.009202997638500693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.051364</v>
+      </c>
+      <c r="I19">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J19">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.236315</v>
+      </c>
+      <c r="N19">
+        <v>0.7089449999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.09175992757004356</v>
+      </c>
+      <c r="P19">
+        <v>0.09175992757004356</v>
+      </c>
+      <c r="Q19">
+        <v>0.004046027886666666</v>
+      </c>
+      <c r="R19">
+        <v>0.03641425098</v>
+      </c>
+      <c r="S19">
+        <v>0.002121246331242635</v>
+      </c>
+      <c r="T19">
+        <v>0.002121246331242635</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.051364</v>
+      </c>
+      <c r="I20">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J20">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.271303</v>
+      </c>
+      <c r="N20">
+        <v>0.813909</v>
+      </c>
+      <c r="O20">
+        <v>0.1053455922372068</v>
+      </c>
+      <c r="P20">
+        <v>0.1053455922372068</v>
+      </c>
+      <c r="Q20">
+        <v>0.004645069097333333</v>
+      </c>
+      <c r="R20">
+        <v>0.041805621876</v>
+      </c>
+      <c r="S20">
+        <v>0.002435310891839793</v>
+      </c>
+      <c r="T20">
+        <v>0.002435310891839793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.01712133333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.051364</v>
+      </c>
+      <c r="I21">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="J21">
+        <v>0.02311734966904168</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4652066666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.39562</v>
+      </c>
+      <c r="O21">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="P21">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="Q21">
+        <v>0.007964958408888889</v>
+      </c>
+      <c r="R21">
+        <v>0.07168462568</v>
+      </c>
+      <c r="S21">
+        <v>0.004175858218633105</v>
+      </c>
+      <c r="T21">
+        <v>0.004175858218633106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.185456</v>
+      </c>
+      <c r="I22">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J22">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5772876666666668</v>
+      </c>
+      <c r="N22">
+        <v>1.731863</v>
+      </c>
+      <c r="O22">
+        <v>0.2241579014468519</v>
+      </c>
+      <c r="P22">
+        <v>0.2241579014468518</v>
+      </c>
+      <c r="Q22">
+        <v>0.03568715383644445</v>
+      </c>
+      <c r="R22">
+        <v>0.321184384528</v>
+      </c>
+      <c r="S22">
+        <v>0.018710015419695</v>
+      </c>
+      <c r="T22">
+        <v>0.01871001541969501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.185456</v>
+      </c>
+      <c r="I23">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J23">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.025249333333333</v>
+      </c>
+      <c r="N23">
+        <v>3.075748</v>
+      </c>
+      <c r="O23">
+        <v>0.3980991666542628</v>
+      </c>
+      <c r="P23">
+        <v>0.3980991666542628</v>
+      </c>
+      <c r="Q23">
+        <v>0.06337954678755554</v>
+      </c>
+      <c r="R23">
+        <v>0.570415921088</v>
+      </c>
+      <c r="S23">
+        <v>0.03322854781648205</v>
+      </c>
+      <c r="T23">
+        <v>0.03322854781648206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.0469147475154157</v>
-      </c>
-      <c r="H16">
-        <v>0.0469147475154157</v>
-      </c>
-      <c r="I16">
-        <v>0.07003868605750947</v>
-      </c>
-      <c r="J16">
-        <v>0.07003868605750947</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.452216369969717</v>
-      </c>
-      <c r="N16">
-        <v>0.452216369969717</v>
-      </c>
-      <c r="O16">
-        <v>0.1918125194176283</v>
-      </c>
-      <c r="P16">
-        <v>0.1918125194176283</v>
-      </c>
-      <c r="Q16">
-        <v>0.02121561681946709</v>
-      </c>
-      <c r="R16">
-        <v>0.02121561681946709</v>
-      </c>
-      <c r="S16">
-        <v>0.01343429682939121</v>
-      </c>
-      <c r="T16">
-        <v>0.01343429682939121</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.185456</v>
+      </c>
+      <c r="I24">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J24">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.236315</v>
+      </c>
+      <c r="N24">
+        <v>0.7089449999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.09175992757004356</v>
+      </c>
+      <c r="P24">
+        <v>0.09175992757004356</v>
+      </c>
+      <c r="Q24">
+        <v>0.01460867821333333</v>
+      </c>
+      <c r="R24">
+        <v>0.13147810392</v>
+      </c>
+      <c r="S24">
+        <v>0.00765901914973394</v>
+      </c>
+      <c r="T24">
+        <v>0.007659019149733943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.185456</v>
+      </c>
+      <c r="I25">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J25">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.271303</v>
+      </c>
+      <c r="N25">
+        <v>0.813909</v>
+      </c>
+      <c r="O25">
+        <v>0.1053455922372068</v>
+      </c>
+      <c r="P25">
+        <v>0.1053455922372068</v>
+      </c>
+      <c r="Q25">
+        <v>0.01677158972266667</v>
+      </c>
+      <c r="R25">
+        <v>0.150944307504</v>
+      </c>
+      <c r="S25">
+        <v>0.008792987632525517</v>
+      </c>
+      <c r="T25">
+        <v>0.008792987632525518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.06181866666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.185456</v>
+      </c>
+      <c r="I26">
+        <v>0.08346801651393571</v>
+      </c>
+      <c r="J26">
+        <v>0.08346801651393573</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4652066666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.39562</v>
+      </c>
+      <c r="O26">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="P26">
+        <v>0.1806374120916351</v>
+      </c>
+      <c r="Q26">
+        <v>0.02875845585777778</v>
+      </c>
+      <c r="R26">
+        <v>0.25882610272</v>
+      </c>
+      <c r="S26">
+        <v>0.0150774464954992</v>
+      </c>
+      <c r="T26">
+        <v>0.01507744649549921</v>
       </c>
     </row>
   </sheetData>
